--- a/translate/Archaea.xlsx
+++ b/translate/Archaea.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>深海小体菌属</t>
+          <t>盐游菌属</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>甲烷杆菌属</t>
+          <t>盐盒菌属</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>甲烷八叠球菌属</t>
+          <t>甲烷巨球菌属</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>甲烷丝菌属</t>
+          <t>热球菌属</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>甲烷绳菌属</t>
+          <t>甲烷叶菌属</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>甲烷球菌属</t>
+          <t>盐贝菌属</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>甲烷球形菌属</t>
+          <t>热球菌属</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>甲烷甲基嗜菌属</t>
+          <t>甲烷杆菌属</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>甲烷吞噬菌属</t>
+          <t>盐盒菌属</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>氮硫古菌属</t>
+          <t>甲烷罐菌属</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>甲烷粒菌属</t>
+          <t>盐盒菌属</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>甲烷短杆菌属</t>
+          <t>热枝菌属</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>葡萄嗜热菌属</t>
+          <t>葡萄热菌属</t>
         </is>
       </c>
     </row>
@@ -820,300 +820,336 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Halohasta</t>
+          <t>Methanofollis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>盐棒菌属</t>
+          <t>甲烷小球菌属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Methanohalophilus</t>
+          <t>Methanolobus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>甲烷嗜盐菌属</t>
+          <t>产甲烷叶菌属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Methanococcus</t>
+          <t>Halobellus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>甲烷球菌属</t>
+          <t>亚硝化球菌属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Methanospirillum</t>
+          <t>Methanocorpusculum</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>甲烷螺菌属</t>
+          <t>盐平板菌属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Halococcus</t>
+          <t>Halohasta</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>盐球菌属</t>
+          <t>盐棒菌属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Candidatus Nitrosomarinus</t>
+          <t>Methanohalophilus</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>卡氏亚硝化海洋菌</t>
+          <t>甲烷嗜盐菌属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Natronococcus</t>
+          <t>Methanococcus</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>硝球菌属</t>
+          <t>热枝菌属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Methanocorpusculum</t>
+          <t>Methanospirillum</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>甲烷粒菌属</t>
+          <t>甲烷螺菌属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Methanoplanus</t>
+          <t>Halococcus</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>甲烷片菌属</t>
+          <t>盐球菌属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Salinirussus</t>
+          <t>Candidatus Nitrosomarinus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>盐红菌属</t>
+          <t>卡氏亚硝化海洋菌</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Promethearchaeum</t>
+          <t>Natronococcus</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>普罗米修斯古菌属</t>
+          <t>硝球菌属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Halostella</t>
+          <t>Methanoplanus</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>盐星菌属</t>
+          <t>甲烷片菌属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Salinigranum</t>
+          <t>Salinirussus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>盐粒菌属</t>
+          <t>盐红菌属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Halogeometricum</t>
+          <t>Promethearchaeum</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>盐几何菌属</t>
+          <t>普罗米修斯古菌属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Methanosphaera</t>
+          <t>Halostella</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>甲烷球形菌属</t>
+          <t>盐星菌属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Candidatus Nanopusillus</t>
+          <t>Salinigranum</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>候选纳米矮小菌属</t>
+          <t>盐粒菌属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Halobiforma</t>
+          <t>Candidatus Nanopusillus</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>盐棒菌属</t>
+          <t>候选深体菌属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Natrinema</t>
+          <t>Halogeometricum</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>钠盐膜菌属</t>
+          <t>盐几何菌属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Halorientalis</t>
+          <t>Methanosphaera</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>海东方古菌属</t>
+          <t>甲烷球形菌属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Halonotius</t>
+          <t>Halobiforma</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>盐惰菌属</t>
+          <t>盐棒菌属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methanolobus</t>
+          <t>Natrinema</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>产甲烷叶菌属</t>
+          <t>钠盐膜菌属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methanogenium</t>
+          <t>Halorientalis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>产甲烷菌属</t>
+          <t>海东方古菌属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Methanocrinis</t>
+          <t>Halonotius</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>产甲烷丛毛菌属</t>
+          <t>盐惰菌属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Halalkalicoccus</t>
+          <t>Methanogenium</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>盐碱球菌属</t>
+          <t>产甲烷菌属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Methanocrinis</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>产甲烷丛毛菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Halalkalicoccus</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>盐碱球菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Halorubellus</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>盐红样菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Methanomethylovorans</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>食甲基产甲烷菌属</t>
         </is>
       </c>
     </row>
